--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_37.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_37.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,313 +488,316 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['D:7', 'G:min', 'C:min', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(70.98, 87.2)]</t>
+          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(19.14, 24.78)]</t>
+          <t>[('0:00:51.280000', '0:01:02.780000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:26.160000', '0:00:36.860000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(3.1, 7.72)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(9.9, 26.98)]</t>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_78</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4310850439882698</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['G', 'C', 'G', 'D', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(47.58, 50.04)]</t>
+          <t>[['A', 'D', 'A', 'E', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:00:08.158789', '0:00:28.461467')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:39.445827', '0:01:49.349138')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(2.86, 5.3)]</t>
+          <t>[('0:00:09.100000', '0:00:13.860000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_99</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(7.7, 12.06)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[('0:01:15.800000', '0:01:19.600000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4588235294117647</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(121.74, 128.48)]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(100.24, 104.56)]</t>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:03.599751', '0:00:07.761836')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(19.78, 25.82)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(74.9, 93.84)]</t>
+          <t>[('0:01:53.020000', '0:01:54.760000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:01:10.380000', '0:01:30.980000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
@@ -798,322 +806,317 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(4.16, 6.7)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:54.180000', '0:01:01.460000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(63.2, 73.12)]</t>
+          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(19.78, 25.82)]</t>
+          <t>[('0:01:14.800000', '0:01:21.060000'), ('0:00:25.480000', '0:00:32.760000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:04.160000', '0:00:06.700000'), ('0:00:01.640000', '0:00:05.020000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(10.24, 21.02)]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:07.760000', '0:01:24.780000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C#:(3,5)', 'F:maj/A', 'A#:maj', 'F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(2.68, 6.46)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(41.3, 43.48)]</t>
+          <t>[('0:01:00.620000', '0:01:06.360000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:55.820000', '0:01:01.680000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1120923913043478</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'E']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(44.16, 46.66)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(55.002834, 59.124376)]</t>
+          <t>[('0:00:42.240000', '0:01:30.860000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+          <t>[('0:00:36.640000', '0:01:18.160000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(85.16, 94.9)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(90.14, 98.78)]</t>
+          <t>[('0:00:58.080000', '0:01:19.120000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:58.680000', '0:01:20.420000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_46</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02), (32.98, 35.26)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(14.16, 28.96), (74.96, 82.28)]</t>
+          <t>[('0:00:07.140000', '0:01:47.600000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:10.360000', '0:01:59')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1121,32 +1124,32 @@
           <t>schubert-winterreise_111</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(27.36, 34.92), (79.42, 86.02)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(88.48, 100.38), (40.38, 42.28)]</t>
+          <t>[('0:00:05.440000', '0:01:53.760000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:06.040000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1154,49 +1157,9 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(7.7, 12.06), (0.34, 4.84)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(79.42, 86.02), (13.98, 21.5)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
